--- a/mControl_produccion/formatos/caja1.xlsx
+++ b/mControl_produccion/formatos/caja1.xlsx
@@ -14,29 +14,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Afiliación</t>
   </si>
   <si>
-    <t>7773224</t>
+    <t>7543520</t>
   </si>
   <si>
     <t>Fecha de Transacción</t>
   </si>
   <si>
+    <t>31/03/2021</t>
+  </si>
+  <si>
     <t>Hora de Transacción</t>
   </si>
   <si>
+    <t>08:18:34</t>
+  </si>
+  <si>
     <t>Número de Control</t>
   </si>
   <si>
+    <t>2021033126819558241</t>
+  </si>
+  <si>
     <t>Código de Autorización</t>
   </si>
   <si>
+    <t>098227</t>
+  </si>
+  <si>
     <t>Número de Tarjeta</t>
   </si>
   <si>
+    <t>421316******8241</t>
+  </si>
+  <si>
     <t>Tipo de Transacción</t>
   </si>
   <si>
@@ -52,9 +67,15 @@
     <t>Monto</t>
   </si>
   <si>
+    <t>262</t>
+  </si>
+  <si>
     <t>Referencia</t>
   </si>
   <si>
+    <t>337145368174</t>
+  </si>
+  <si>
     <t>Referencia 1</t>
   </si>
   <si>
@@ -115,46 +136,19 @@
     <t>Banco Emisor</t>
   </si>
   <si>
-    <t xml:space="preserve">          </t>
+    <t xml:space="preserve">HSBC MEX  </t>
   </si>
   <si>
     <t>Marca de Tarjeta</t>
   </si>
   <si>
-    <t>VISABANCOP</t>
+    <t xml:space="preserve">VISA      </t>
   </si>
   <si>
     <t>Tipo de Tarjeta</t>
   </si>
   <si>
     <t xml:space="preserve">DEBITO    </t>
-  </si>
-  <si>
-    <t>24/09/2020</t>
-  </si>
-  <si>
-    <t>18:16:20</t>
-  </si>
-  <si>
-    <t>202009241401181667309</t>
-  </si>
-  <si>
-    <t>663781</t>
-  </si>
-  <si>
-    <t>627318******7309</t>
-  </si>
-  <si>
-    <t>844</t>
-  </si>
-  <si>
-    <t>600574436542</t>
-  </si>
-  <si>
-    <t>SCOTIABANK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIVADA   </t>
   </si>
 </sst>
 </file>
@@ -490,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:AB8"/>
+  <dimension ref="A6:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J7"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -510,82 +504,82 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="S6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="T6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="U6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="V6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="W6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="X6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Y6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="Z6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AA6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -593,75 +587,52 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="Z7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="AA7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="AB7" t="s">
         <v>44</v>
-      </c>
-      <c r="S7" t="s">
-        <v>22</v>
-      </c>
-      <c r="W7" t="s">
-        <v>27</v>
-      </c>
-      <c r="X7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="S8" t="s">
-        <v>22</v>
-      </c>
-      <c r="W8" t="s">
-        <v>27</v>
-      </c>
-      <c r="X8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
